--- a/bib-2021.xlsx
+++ b/bib-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,304 +1036,321 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
+          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
+          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
+          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
+          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
+          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
+          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
+          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
+          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
+          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
+          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
+          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
+          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>

--- a/bib-2021.xlsx
+++ b/bib-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,51 +934,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Germán Kruszewski, Tomás Mikolov.</t>
+          <t>Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
+          <t xml:space="preserve"> Language Modeling and Artificial Intelligence.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
+          <t xml:space="preserve"> Interspeech 2021, 22nd Annual Conference of the International Speech Communication Association, Brno, Czechia, 30 August - 3 September 2021.: (2021).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
+          <t>Germán Kruszewski, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
+          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Barbora Hudcová, Tomás Mikolov.</t>
+          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
+          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
         </is>
       </c>
     </row>
@@ -990,367 +990,384 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
+          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Barbora Hudcová, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
+          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
+          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
+          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
+          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
+          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
+          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
+          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
+          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
+          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
+          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
+          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
+          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
+          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
+          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
+          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>

--- a/bib-2021.xlsx
+++ b/bib-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,102 +900,102 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mikolás Janota, Haniel Barbosa, Pascal Fontaine, Andrew Reynolds.</t>
+          <t>Olaf Beyersdorff, Mikolás Janota, Florian Lonsing, Martina Seidl.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fair and Adventurous Enumeration of Quantifier Instantiations.</t>
+          <t xml:space="preserve"> Quantified Boolean Formulas.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2105.13700 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: CHAP</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jan Hula, David Adamczyk, David Mojzísek, Vojtech Molek.</t>
+          <t>Mikolás Janota, Haniel Barbosa, Pascal Fontaine, Andrew Reynolds.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Segmenting out Generic Objects in Monocular Videos.</t>
+          <t xml:space="preserve"> Fair and Adventurous Enumeration of Quantifier Instantiations.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st Conference Information Technologies - Applications and Theory (ITAT 2021), Hotel Heľpa, Nízke Tatry and Muránska planina, Slovakia, September 24-28, 2021.: 123-129 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2105.13700 (2021).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tomás Mikolov.</t>
+          <t>Jan Hula, David Adamczyk, David Mojzísek, Vojtech Molek.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Language Modeling and Artificial Intelligence.</t>
+          <t xml:space="preserve"> Segmenting out Generic Objects in Monocular Videos.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interspeech 2021, 22nd Annual Conference of the International Speech Communication Association, Brno, Czechia, 30 August - 3 September 2021.: (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 21st Conference Information Technologies - Applications and Theory (ITAT 2021), Hotel Heľpa, Nízke Tatry and Muránska planina, Slovakia, September 24-28, 2021.: 123-129 (2021).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Germán Kruszewski, Tomás Mikolov.</t>
+          <t>Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
+          <t xml:space="preserve"> Language Modeling and Artificial Intelligence.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
+          <t xml:space="preserve"> Interspeech 2021, 22nd Annual Conference of the International Speech Communication Association, Brno, Czechia, 30 August - 3 September 2021.: (2021).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
+          <t>Germán Kruszewski, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
+          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Barbora Hudcová, Tomás Mikolov.</t>
+          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
+          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
         </is>
       </c>
     </row>
@@ -1007,367 +1007,384 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
+          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Barbora Hudcová, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
+          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
+          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
+          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
+          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
+          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
+          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
+          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
+          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
+          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
+          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
+          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
+          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
+          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
+          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
+          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>

--- a/bib-2021.xlsx
+++ b/bib-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,51 +968,51 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Germán Kruszewski, Tomás Mikolov.</t>
+          <t>Barbora Hudcová, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
+          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
+          <t xml:space="preserve"> 2021 Conference on Artificial Life, ALIFE 2021, online, July 19-23, 2021: (2021).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
+          <t>Germán Kruszewski, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
+          <t xml:space="preserve"> Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Barbora Hudcová, Tomás Mikolov.</t>
+          <t>Hugo Cisneros, Josef Sivic, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
+          <t xml:space="preserve"> Visualizing computation in large-scale cellular automata.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
         </is>
       </c>
     </row>
@@ -1024,367 +1024,384 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
+          <t xml:space="preserve"> Computational Hierarchy of Elementary Cellular Automata.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Barbora Hudcová, Tomás Mikolov.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
+          <t xml:space="preserve"> Classification of Discrete Dynamical Systems Based on Transients.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
+          <t xml:space="preserve"> Selecting Informative Data Samples for Model Learning Through Symbolic Regression.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 14148-14158 (2021).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Jan Zegklitz, Robert Babuska.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
+          <t xml:space="preserve"> Symbolic Regression Methods for Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
+          <t xml:space="preserve"> IEEE Access 9: 139697-139711 (2021).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
+          <t>Martin Brablc, Jan Zegklitz, Robert Grepl, Robert Babuska.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
+          <t xml:space="preserve"> Control of Magnetic Manipulator Using Reinforcement Learning Based on Incrementally Adapted Local Linear Models.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
+          <t xml:space="preserve"> Complex. 2021: 6617309:1-6617309:12 (2021).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
+          <t>Jirí Kubalík, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Multi-objective symbolic regression for physics-aware dynamic modeling.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
+          <t xml:space="preserve"> Expert Syst. Appl. 182: (2021).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
+          <t>Jonás Kulhánek, Erik Derner, Robert Babuska.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
+          <t xml:space="preserve"> Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 4345-4352 (2021).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
+          <t>Osama Mazhar, Robert Babuska, Jens Kober.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multi-Modal Object Detection.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
+          <t xml:space="preserve"> IEEE Robotics Autom. Lett. 6: 6321-6328 (2021).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Clara Gómez, Alejandra C. Hernández, Ramón Barber, Robert Babuska.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
+          <t xml:space="preserve"> Change detection using weighted features for image-based localization.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
+          <t xml:space="preserve"> Robotics Auton. Syst. 135: (2021).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Bas van der Heijden, Laura Ferranti, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> DeepKoCo: Efficient latent planning with a task-relevant Koopman representation.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 183-189 (2021).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 2361-2368 (2021).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
+          <t>Erik Derner, Jirí Kubalík, Robert Babuska.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
+          <t xml:space="preserve"> Guiding Robot Model Construction with Prior Features.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
+          <t xml:space="preserve"> IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2021, Prague, Czech Republic, September 27 - Oct. 1, 2021: 7112-7118 (2021).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
+          <t>Osama Mazhar, Jens Kober, Robert Babuska.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
+          <t xml:space="preserve"> GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jacob E. Kooi, Robert Babuska.</t>
+          <t>Taeke de Haan, Padmaja Kulkarni, Robert Babuska.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
+          <t xml:space="preserve"> Geometry-Based Grasping of Vine Tomatoes.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
+          <t>Jacob E. Kooi, Robert Babuska.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
+          <t xml:space="preserve"> Inclined Quadrotor Landing using Deep Reinforcement Learning.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Jan Zahálka, Marcel Worring, Jarke J. van Wijk.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
+          <t>Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
+          <t>Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
+          <t>Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+          <t>Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>

--- a/bib-2021.xlsx
+++ b/bib-2021.xlsx
@@ -910,7 +910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: CHAP</t>
+          <t xml:space="preserve"> Handbook of Satisfiability - Second Edition: 1177-1221 (2021).</t>
         </is>
       </c>
     </row>
